--- a/APM files/140808239/140808239 IMPORT 1 PS&NS - deactivation.xlsx
+++ b/APM files/140808239/140808239 IMPORT 1 PS&NS - deactivation.xlsx
@@ -1,37 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/140808239/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCC66BF-A1C5-644D-899E-AE6F769D6D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="51200" windowHeight="26880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="10">
+  <si>
+    <t>Action Type</t>
+  </si>
+  <si>
+    <t>SF ID</t>
+  </si>
+  <si>
+    <t>Hotel ID</t>
+  </si>
+  <si>
+    <t>Stop Sell Property</t>
+  </si>
+  <si>
+    <t>Stop Sell Reason</t>
+  </si>
+  <si>
+    <t>Projected Stop Sell End Date</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Direct Contract to be deactivated</t>
+  </si>
+  <si>
+    <t>06/06/2079</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +88,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,76 +412,3282 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Action Type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>SF ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Hotel ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Stop Sell Property</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Stop Sell Reason</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Projected Stop Sell End Date</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Update</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Direct Contract to be deactivated</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>06/06/2079</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>140808239</v>
+      </c>
+      <c r="C2">
+        <v>106806290</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>140808239</v>
+      </c>
+      <c r="C3">
+        <v>98551020</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>140808239</v>
+      </c>
+      <c r="C4">
+        <v>101159898</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>140808239</v>
+      </c>
+      <c r="C5">
+        <v>104211991</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>140808239</v>
+      </c>
+      <c r="C6">
+        <v>110066071</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>140808239</v>
+      </c>
+      <c r="C7">
+        <v>111234475</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>140808239</v>
+      </c>
+      <c r="C8">
+        <v>106465774</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>140808239</v>
+      </c>
+      <c r="C9">
+        <v>100850058</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>140808239</v>
+      </c>
+      <c r="C10">
+        <v>94964367</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>140808239</v>
+      </c>
+      <c r="C11">
+        <v>112070758</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>140808239</v>
+      </c>
+      <c r="C12">
+        <v>103731127</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>140808239</v>
+      </c>
+      <c r="C13">
+        <v>111518348</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>140808239</v>
+      </c>
+      <c r="C14">
+        <v>112046253</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>140808239</v>
+      </c>
+      <c r="C15">
+        <v>98548842</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>140808239</v>
+      </c>
+      <c r="C16">
+        <v>93600607</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>140808239</v>
+      </c>
+      <c r="C17">
+        <v>93597043</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>140808239</v>
+      </c>
+      <c r="C18">
+        <v>100849259</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>140808239</v>
+      </c>
+      <c r="C19">
+        <v>93596789</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>140808239</v>
+      </c>
+      <c r="C20">
+        <v>100874565</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>140808239</v>
+      </c>
+      <c r="C21">
+        <v>94328023</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>140808239</v>
+      </c>
+      <c r="C22">
+        <v>94959386</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>140808239</v>
+      </c>
+      <c r="C23">
+        <v>93546586</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>140808239</v>
+      </c>
+      <c r="C24">
+        <v>98552309</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>140808239</v>
+      </c>
+      <c r="C25">
+        <v>112953999</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>140808239</v>
+      </c>
+      <c r="C26">
+        <v>98556028</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>140808239</v>
+      </c>
+      <c r="C27">
+        <v>112496485</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>140808239</v>
+      </c>
+      <c r="C28">
+        <v>111636126</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>140808239</v>
+      </c>
+      <c r="C29">
+        <v>112824611</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>140808239</v>
+      </c>
+      <c r="C30">
+        <v>100850274</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>140808239</v>
+      </c>
+      <c r="C31">
+        <v>94354345</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>140808239</v>
+      </c>
+      <c r="C32">
+        <v>111741694</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>140808239</v>
+      </c>
+      <c r="C33">
+        <v>94956990</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>140808239</v>
+      </c>
+      <c r="C34">
+        <v>114394346</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>140808239</v>
+      </c>
+      <c r="C35">
+        <v>112893845</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>140808239</v>
+      </c>
+      <c r="C36">
+        <v>111518361</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>140808239</v>
+      </c>
+      <c r="C37">
+        <v>98553428</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>140808239</v>
+      </c>
+      <c r="C38">
+        <v>112782064</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>140808239</v>
+      </c>
+      <c r="C39">
+        <v>99823033</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>140808239</v>
+      </c>
+      <c r="C40">
+        <v>94311154</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>140808239</v>
+      </c>
+      <c r="C41">
+        <v>101185284</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>140808239</v>
+      </c>
+      <c r="C42">
+        <v>103995484</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>140808239</v>
+      </c>
+      <c r="C43">
+        <v>106638433</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>140808239</v>
+      </c>
+      <c r="C44">
+        <v>94959694</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>140808239</v>
+      </c>
+      <c r="C45">
+        <v>99573200</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>140808239</v>
+      </c>
+      <c r="C46">
+        <v>94411970</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>140808239</v>
+      </c>
+      <c r="C47">
+        <v>113023007</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>140808239</v>
+      </c>
+      <c r="C48">
+        <v>93536740</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>140808239</v>
+      </c>
+      <c r="C49">
+        <v>100039679</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <v>140808239</v>
+      </c>
+      <c r="C50">
+        <v>111713791</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>140808239</v>
+      </c>
+      <c r="C51">
+        <v>112275693</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>140808239</v>
+      </c>
+      <c r="C52">
+        <v>103995440</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>140808239</v>
+      </c>
+      <c r="C53">
+        <v>94960199</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <v>140808239</v>
+      </c>
+      <c r="C54">
+        <v>94959326</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>140808239</v>
+      </c>
+      <c r="C55">
+        <v>112751478</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56">
+        <v>140808239</v>
+      </c>
+      <c r="C56">
+        <v>111518365</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <v>140808239</v>
+      </c>
+      <c r="C57">
+        <v>99822902</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>140808239</v>
+      </c>
+      <c r="C58">
+        <v>107400979</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <v>140808239</v>
+      </c>
+      <c r="C59">
+        <v>94344764</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>140808239</v>
+      </c>
+      <c r="C60">
+        <v>102339323</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61">
+        <v>140808239</v>
+      </c>
+      <c r="C61">
+        <v>109808293</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <v>140808239</v>
+      </c>
+      <c r="C62">
+        <v>94347774</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>140808239</v>
+      </c>
+      <c r="C63">
+        <v>102433650</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>140808239</v>
+      </c>
+      <c r="C64">
+        <v>93532513</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <v>140808239</v>
+      </c>
+      <c r="C65">
+        <v>107950592</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66">
+        <v>140808239</v>
+      </c>
+      <c r="C66">
+        <v>103596508</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67">
+        <v>140808239</v>
+      </c>
+      <c r="C67">
+        <v>108401850</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68">
+        <v>140808239</v>
+      </c>
+      <c r="C68">
+        <v>93594333</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <v>140808239</v>
+      </c>
+      <c r="C69">
+        <v>94305942</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70">
+        <v>140808239</v>
+      </c>
+      <c r="C70">
+        <v>94363248</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71">
+        <v>140808239</v>
+      </c>
+      <c r="C71">
+        <v>111693576</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>140808239</v>
+      </c>
+      <c r="C72">
+        <v>94413604</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73">
+        <v>140808239</v>
+      </c>
+      <c r="C73">
+        <v>93561185</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74">
+        <v>140808239</v>
+      </c>
+      <c r="C74">
+        <v>94323915</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75">
+        <v>140808239</v>
+      </c>
+      <c r="C75">
+        <v>93537782</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76">
+        <v>140808239</v>
+      </c>
+      <c r="C76">
+        <v>93536899</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77">
+        <v>140808239</v>
+      </c>
+      <c r="C77">
+        <v>93537237</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78">
+        <v>140808239</v>
+      </c>
+      <c r="C78">
+        <v>93536682</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79">
+        <v>140808239</v>
+      </c>
+      <c r="C79">
+        <v>101081435</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80">
+        <v>140808239</v>
+      </c>
+      <c r="C80">
+        <v>99261023</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81">
+        <v>140808239</v>
+      </c>
+      <c r="C81">
+        <v>113814571</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82">
+        <v>140808239</v>
+      </c>
+      <c r="C82">
+        <v>112235519</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83">
+        <v>140808239</v>
+      </c>
+      <c r="C83">
+        <v>94952588</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84">
+        <v>140808239</v>
+      </c>
+      <c r="C84">
+        <v>101277184</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85">
+        <v>140808239</v>
+      </c>
+      <c r="C85">
+        <v>100299360</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86">
+        <v>140808239</v>
+      </c>
+      <c r="C86">
+        <v>94954548</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87">
+        <v>140808239</v>
+      </c>
+      <c r="C87">
+        <v>109903670</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88">
+        <v>140808239</v>
+      </c>
+      <c r="C88">
+        <v>111636243</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89">
+        <v>140808239</v>
+      </c>
+      <c r="C89">
+        <v>94463301</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90">
+        <v>140808239</v>
+      </c>
+      <c r="C90">
+        <v>106734890</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91">
+        <v>140808239</v>
+      </c>
+      <c r="C91">
+        <v>94959456</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92">
+        <v>140808239</v>
+      </c>
+      <c r="C92">
+        <v>93532490</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93">
+        <v>140808239</v>
+      </c>
+      <c r="C93">
+        <v>99711795</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94">
+        <v>140808239</v>
+      </c>
+      <c r="C94">
+        <v>94522902</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95">
+        <v>140808239</v>
+      </c>
+      <c r="C95">
+        <v>111048816</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96">
+        <v>140808239</v>
+      </c>
+      <c r="C96">
+        <v>113473117</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97">
+        <v>140808239</v>
+      </c>
+      <c r="C97">
+        <v>94953379</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98">
+        <v>140808239</v>
+      </c>
+      <c r="C98">
+        <v>94463638</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99">
+        <v>140808239</v>
+      </c>
+      <c r="C99">
+        <v>106375000</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100">
+        <v>140808239</v>
+      </c>
+      <c r="C100">
+        <v>104334065</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101">
+        <v>140808239</v>
+      </c>
+      <c r="C101">
+        <v>99610490</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102">
+        <v>140808239</v>
+      </c>
+      <c r="C102">
+        <v>100849936</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103">
+        <v>140808239</v>
+      </c>
+      <c r="C103">
+        <v>114484543</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104">
+        <v>140808239</v>
+      </c>
+      <c r="C104">
+        <v>100849285</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105">
+        <v>140808239</v>
+      </c>
+      <c r="C105">
+        <v>107174045</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106">
+        <v>140808239</v>
+      </c>
+      <c r="C106">
+        <v>100334830</v>
+      </c>
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107">
+        <v>140808239</v>
+      </c>
+      <c r="C107">
+        <v>94445725</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108">
+        <v>140808239</v>
+      </c>
+      <c r="C108">
+        <v>94959179</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109">
+        <v>140808239</v>
+      </c>
+      <c r="C109">
+        <v>102894238</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110">
+        <v>140808239</v>
+      </c>
+      <c r="C110">
+        <v>104334069</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111">
+        <v>140808239</v>
+      </c>
+      <c r="C111">
+        <v>111443814</v>
+      </c>
+      <c r="D111" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112">
+        <v>140808239</v>
+      </c>
+      <c r="C112">
+        <v>94352337</v>
+      </c>
+      <c r="D112" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113">
+        <v>140808239</v>
+      </c>
+      <c r="C113">
+        <v>112163947</v>
+      </c>
+      <c r="D113" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114">
+        <v>140808239</v>
+      </c>
+      <c r="C114">
+        <v>103483964</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115">
+        <v>140808239</v>
+      </c>
+      <c r="C115">
+        <v>110361705</v>
+      </c>
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116">
+        <v>140808239</v>
+      </c>
+      <c r="C116">
+        <v>94421113</v>
+      </c>
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117">
+        <v>140808239</v>
+      </c>
+      <c r="C117">
+        <v>98550196</v>
+      </c>
+      <c r="D117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118">
+        <v>140808239</v>
+      </c>
+      <c r="C118">
+        <v>94953313</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119">
+        <v>140808239</v>
+      </c>
+      <c r="C119">
+        <v>114295630</v>
+      </c>
+      <c r="D119" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120">
+        <v>140808239</v>
+      </c>
+      <c r="C120">
+        <v>94955917</v>
+      </c>
+      <c r="D120" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121">
+        <v>140808239</v>
+      </c>
+      <c r="C121">
+        <v>115486054</v>
+      </c>
+      <c r="D121" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122">
+        <v>140808239</v>
+      </c>
+      <c r="C122">
+        <v>113779999</v>
+      </c>
+      <c r="D122" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123">
+        <v>140808239</v>
+      </c>
+      <c r="C123">
+        <v>114143166</v>
+      </c>
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124">
+        <v>140808239</v>
+      </c>
+      <c r="C124">
+        <v>101305401</v>
+      </c>
+      <c r="D124" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125">
+        <v>140808239</v>
+      </c>
+      <c r="C125">
+        <v>112163939</v>
+      </c>
+      <c r="D125" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126">
+        <v>140808239</v>
+      </c>
+      <c r="C126">
+        <v>111801916</v>
+      </c>
+      <c r="D126" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127">
+        <v>140808239</v>
+      </c>
+      <c r="C127">
+        <v>94952608</v>
+      </c>
+      <c r="D127" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128">
+        <v>140808239</v>
+      </c>
+      <c r="C128">
+        <v>94954855</v>
+      </c>
+      <c r="D128" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129">
+        <v>140808239</v>
+      </c>
+      <c r="C129">
+        <v>98548712</v>
+      </c>
+      <c r="D129" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130">
+        <v>140808239</v>
+      </c>
+      <c r="C130">
+        <v>104518342</v>
+      </c>
+      <c r="D130" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131">
+        <v>140808239</v>
+      </c>
+      <c r="C131">
+        <v>112307685</v>
+      </c>
+      <c r="D131" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132">
+        <v>140808239</v>
+      </c>
+      <c r="C132">
+        <v>105343397</v>
+      </c>
+      <c r="D132" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133">
+        <v>140808239</v>
+      </c>
+      <c r="C133">
+        <v>93594207</v>
+      </c>
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134">
+        <v>140808239</v>
+      </c>
+      <c r="C134">
+        <v>99286167</v>
+      </c>
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135">
+        <v>140808239</v>
+      </c>
+      <c r="C135">
+        <v>108444502</v>
+      </c>
+      <c r="D135" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136">
+        <v>140808239</v>
+      </c>
+      <c r="C136">
+        <v>112163900</v>
+      </c>
+      <c r="D136" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137">
+        <v>140808239</v>
+      </c>
+      <c r="C137">
+        <v>111819243</v>
+      </c>
+      <c r="D137" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138">
+        <v>140808239</v>
+      </c>
+      <c r="C138">
+        <v>105159308</v>
+      </c>
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139">
+        <v>140808239</v>
+      </c>
+      <c r="C139">
+        <v>111801918</v>
+      </c>
+      <c r="D139" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140">
+        <v>140808239</v>
+      </c>
+      <c r="C140">
+        <v>94337913</v>
+      </c>
+      <c r="D140" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141">
+        <v>140808239</v>
+      </c>
+      <c r="C141">
+        <v>111666196</v>
+      </c>
+      <c r="D141" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142">
+        <v>140808239</v>
+      </c>
+      <c r="C142">
+        <v>94488463</v>
+      </c>
+      <c r="D142" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143">
+        <v>140808239</v>
+      </c>
+      <c r="C143">
+        <v>93570908</v>
+      </c>
+      <c r="D143" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144">
+        <v>140808239</v>
+      </c>
+      <c r="C144">
+        <v>113514740</v>
+      </c>
+      <c r="D144" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145">
+        <v>140808239</v>
+      </c>
+      <c r="C145">
+        <v>98549939</v>
+      </c>
+      <c r="D145" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>6</v>
+      </c>
+      <c r="B146">
+        <v>140808239</v>
+      </c>
+      <c r="C146">
+        <v>111801920</v>
+      </c>
+      <c r="D146" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" t="s">
+        <v>8</v>
+      </c>
+      <c r="F146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B147">
+        <v>140808239</v>
+      </c>
+      <c r="C147">
+        <v>94952477</v>
+      </c>
+      <c r="D147" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147" t="s">
+        <v>8</v>
+      </c>
+      <c r="F147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148">
+        <v>140808239</v>
+      </c>
+      <c r="C148">
+        <v>94957689</v>
+      </c>
+      <c r="D148" t="s">
+        <v>7</v>
+      </c>
+      <c r="E148" t="s">
+        <v>8</v>
+      </c>
+      <c r="F148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149">
+        <v>140808239</v>
+      </c>
+      <c r="C149">
+        <v>104211978</v>
+      </c>
+      <c r="D149" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" t="s">
+        <v>8</v>
+      </c>
+      <c r="F149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150">
+        <v>140808239</v>
+      </c>
+      <c r="C150">
+        <v>106432441</v>
+      </c>
+      <c r="D150" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" t="s">
+        <v>8</v>
+      </c>
+      <c r="F150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151">
+        <v>140808239</v>
+      </c>
+      <c r="C151">
+        <v>106898692</v>
+      </c>
+      <c r="D151" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" t="s">
+        <v>8</v>
+      </c>
+      <c r="F151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152">
+        <v>140808239</v>
+      </c>
+      <c r="C152">
+        <v>111801950</v>
+      </c>
+      <c r="D152" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" t="s">
+        <v>8</v>
+      </c>
+      <c r="F152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>6</v>
+      </c>
+      <c r="B153">
+        <v>140808239</v>
+      </c>
+      <c r="C153">
+        <v>111801917</v>
+      </c>
+      <c r="D153" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" t="s">
+        <v>8</v>
+      </c>
+      <c r="F153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>6</v>
+      </c>
+      <c r="B154">
+        <v>140808239</v>
+      </c>
+      <c r="C154">
+        <v>94952706</v>
+      </c>
+      <c r="D154" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" t="s">
+        <v>8</v>
+      </c>
+      <c r="F154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155">
+        <v>140808239</v>
+      </c>
+      <c r="C155">
+        <v>114265782</v>
+      </c>
+      <c r="D155" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" t="s">
+        <v>8</v>
+      </c>
+      <c r="F155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156">
+        <v>140808239</v>
+      </c>
+      <c r="C156">
+        <v>112046240</v>
+      </c>
+      <c r="D156" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" t="s">
+        <v>8</v>
+      </c>
+      <c r="F156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>6</v>
+      </c>
+      <c r="B157">
+        <v>140808239</v>
+      </c>
+      <c r="C157">
+        <v>94360406</v>
+      </c>
+      <c r="D157" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" t="s">
+        <v>8</v>
+      </c>
+      <c r="F157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158">
+        <v>140808239</v>
+      </c>
+      <c r="C158">
+        <v>111801919</v>
+      </c>
+      <c r="D158" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" t="s">
+        <v>8</v>
+      </c>
+      <c r="F158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159">
+        <v>140808239</v>
+      </c>
+      <c r="C159">
+        <v>94328549</v>
+      </c>
+      <c r="D159" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" t="s">
+        <v>8</v>
+      </c>
+      <c r="F159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160">
+        <v>140808239</v>
+      </c>
+      <c r="C160">
+        <v>94368934</v>
+      </c>
+      <c r="D160" t="s">
+        <v>7</v>
+      </c>
+      <c r="E160" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>6</v>
+      </c>
+      <c r="B161">
+        <v>140808239</v>
+      </c>
+      <c r="C161">
+        <v>99823007</v>
+      </c>
+      <c r="D161" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" t="s">
+        <v>8</v>
+      </c>
+      <c r="F161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162">
+        <v>140808239</v>
+      </c>
+      <c r="C162">
+        <v>100859510</v>
+      </c>
+      <c r="D162" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162" t="s">
+        <v>8</v>
+      </c>
+      <c r="F162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163">
+        <v>140808239</v>
+      </c>
+      <c r="C163">
+        <v>93589319</v>
+      </c>
+      <c r="D163" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163" t="s">
+        <v>8</v>
+      </c>
+      <c r="F163" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{03ef5274-90b8-4b3f-8a76-b4c36a43e904}" enabled="1" method="Standard" siteId="{61e6eeb3-5fd7-4aaa-ae3c-61e8deb09b79}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>